--- a/TP5/EJ2/Mediciones/Bode.xlsx
+++ b/TP5/EJ2/Mediciones/Bode.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D844B70-E9D9-479E-8BE3-F722911535B2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3983D86-B578-4A7E-B196-B3EDB59D755A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,8 +64,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -346,13 +347,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C239"/>
+  <dimension ref="A1:C225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
-      <selection activeCell="C2" activeCellId="1" sqref="A2:A239 C2:C239"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C210" sqref="C210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -367,230 +371,230 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="B2">
-        <v>-37</v>
+        <v>-44</v>
       </c>
       <c r="C2">
-        <v>167</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>22076.342100000002</v>
+        <v>18110.5445736291</v>
       </c>
       <c r="B3">
-        <v>-36.9</v>
+        <v>-43.8</v>
       </c>
       <c r="C3">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>22152.949110000001</v>
+        <v>18221.768041855899</v>
       </c>
       <c r="B4">
-        <v>-36.700000000000003</v>
-      </c>
-      <c r="C4">
-        <v>168</v>
+        <v>-43.6</v>
+      </c>
+      <c r="C4" s="1">
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>22229.821950000001</v>
+        <v>18333.6745740201</v>
       </c>
       <c r="B5">
-        <v>-36.6</v>
+        <v>-43.4</v>
       </c>
       <c r="C5">
-        <v>169</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>22306.96155</v>
+        <v>18446.268365066699</v>
       </c>
       <c r="B6">
-        <v>-36.4</v>
+        <v>-43.2</v>
       </c>
       <c r="C6">
-        <v>167</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>22384.368829999999</v>
+        <v>18559.5536357036</v>
       </c>
       <c r="B7">
-        <v>-36.299999999999997</v>
-      </c>
-      <c r="C7">
-        <v>168</v>
+        <v>-43</v>
+      </c>
+      <c r="C7" s="1">
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>22462.044730000001</v>
+        <v>18673.5346325594</v>
       </c>
       <c r="B8">
-        <v>-36.200000000000003</v>
-      </c>
-      <c r="C8">
-        <v>168</v>
+        <v>-42.7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>22539.990160000001</v>
+        <v>18788.215628343001</v>
       </c>
       <c r="B9">
-        <v>-36</v>
+        <v>-42.5</v>
       </c>
       <c r="C9">
-        <v>165</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>22618.20608</v>
+        <v>18903.600922003399</v>
       </c>
       <c r="B10">
-        <v>-35.9</v>
+        <v>-42.3</v>
       </c>
       <c r="C10">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>22696.69341</v>
+        <v>19019.694838891101</v>
       </c>
       <c r="B11">
-        <v>-35.700000000000003</v>
-      </c>
-      <c r="C11">
+        <v>-42.2</v>
+      </c>
+      <c r="C11" s="1">
         <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>22775.453089999999</v>
+        <v>19136.501730920001</v>
       </c>
       <c r="B12">
-        <v>-35.6</v>
+        <v>-42</v>
       </c>
       <c r="C12">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>22854.486089999999</v>
+        <v>19254.0259767309</v>
       </c>
       <c r="B13">
-        <v>-35.5</v>
+        <v>-41.8</v>
       </c>
       <c r="C13">
-        <v>165</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>22933.79333</v>
+        <v>19372.2719818554</v>
       </c>
       <c r="B14">
-        <v>-35.299999999999997</v>
+        <v>-41.7</v>
       </c>
       <c r="C14">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>23013.375779999998</v>
+        <v>19491.244178880999</v>
       </c>
       <c r="B15">
-        <v>-35.1</v>
+        <v>-41.5</v>
       </c>
       <c r="C15">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>23093.234390000001</v>
+        <v>19610.9470276174</v>
       </c>
       <c r="B16">
-        <v>-35</v>
+        <v>-41.3</v>
       </c>
       <c r="C16">
-        <v>164</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>23173.37011</v>
+        <v>19731.385015263601</v>
       </c>
       <c r="B17">
-        <v>-34.799999999999997</v>
+        <v>-41</v>
       </c>
       <c r="C17">
-        <v>162</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>23253.783909999998</v>
+        <v>19852.562656575999</v>
       </c>
       <c r="B18">
-        <v>-34.700000000000003</v>
+        <v>-40.799999999999997</v>
       </c>
       <c r="C18">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>23334.476760000001</v>
+        <v>19974.484494038101</v>
       </c>
       <c r="B19">
-        <v>-34.6</v>
+        <v>-40.6</v>
       </c>
       <c r="C19">
-        <v>165</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>23415.449619999999</v>
+        <v>20097.1550980299</v>
       </c>
       <c r="B20">
-        <v>-34.4</v>
+        <v>-40.4</v>
       </c>
       <c r="C20">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>23496.703460000001</v>
+        <v>20220.579067000501</v>
       </c>
       <c r="B21">
-        <v>-34.200000000000003</v>
+        <v>-40.200000000000003</v>
       </c>
       <c r="C21">
-        <v>168</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>23578.239259999998</v>
+        <v>20344.761027639099</v>
       </c>
       <c r="B22">
-        <v>-34.1</v>
+        <v>-40</v>
       </c>
       <c r="C22">
         <v>169</v>
@@ -598,802 +602,802 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>23660.057990000001</v>
+        <v>20469.705635049399</v>
       </c>
       <c r="B23">
-        <v>-34</v>
+        <v>-39.700000000000003</v>
       </c>
       <c r="C23">
-        <v>163</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>23742.160650000002</v>
+        <v>20595.4175729239</v>
       </c>
       <c r="B24">
-        <v>-33.799999999999997</v>
-      </c>
-      <c r="C24">
-        <v>166</v>
+        <v>-39.6</v>
+      </c>
+      <c r="C24" s="1">
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>23824.548210000001</v>
+        <v>20721.901553718999</v>
       </c>
       <c r="B25">
-        <v>-33.6</v>
+        <v>-39.4</v>
       </c>
       <c r="C25">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>23907.221659999999</v>
+        <v>20849.162318832299</v>
       </c>
       <c r="B26">
-        <v>-33.5</v>
+        <v>-39.1</v>
       </c>
       <c r="C26">
-        <v>164</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>23990.182000000001</v>
+        <v>20977.20463878</v>
       </c>
       <c r="B27">
-        <v>-33.299999999999997</v>
+        <v>-39</v>
       </c>
       <c r="C27">
-        <v>167</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>24073.430219999998</v>
+        <v>21106.033313375799</v>
       </c>
       <c r="B28">
-        <v>-33.200000000000003</v>
+        <v>-38.6</v>
       </c>
       <c r="C28">
-        <v>164</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>24156.96731</v>
+        <v>21235.653171910799</v>
       </c>
       <c r="B29">
-        <v>-33</v>
+        <v>-38.4</v>
       </c>
       <c r="C29">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>24240.794290000002</v>
+        <v>21366.0690733343</v>
       </c>
       <c r="B30">
-        <v>-32.9</v>
+        <v>-38.200000000000003</v>
       </c>
       <c r="C30">
-        <v>164</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>24324.91216</v>
+        <v>21497.285906436598</v>
       </c>
       <c r="B31">
-        <v>-32.700000000000003</v>
+        <v>-38</v>
       </c>
       <c r="C31">
-        <v>165</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>24409.321919999998</v>
+        <v>21629.3085900316</v>
       </c>
       <c r="B32">
-        <v>-32.5</v>
+        <v>-37.700000000000003</v>
       </c>
       <c r="C32">
-        <v>164</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>24494.024590000001</v>
+        <v>21762.142073141498</v>
       </c>
       <c r="B33">
-        <v>-32.4</v>
+        <v>-37.5</v>
       </c>
       <c r="C33">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>24579.021189999999</v>
+        <v>21895.791335182101</v>
       </c>
       <c r="B34">
-        <v>-32.200000000000003</v>
+        <v>-37.299999999999997</v>
       </c>
       <c r="C34">
-        <v>165</v>
+        <v>176</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>24664.312740000001</v>
+        <v>22030.261386149799</v>
       </c>
       <c r="B35">
-        <v>-32</v>
+        <v>-37.200000000000003</v>
       </c>
       <c r="C35">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>24749.900249999999</v>
+        <v>22165.557266809301</v>
       </c>
       <c r="B36">
-        <v>-31.9</v>
+        <v>-36.9</v>
       </c>
       <c r="C36">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>24835.784759999999</v>
+        <v>22301.6840488821</v>
       </c>
       <c r="B37">
-        <v>-31.7</v>
+        <v>-36.700000000000003</v>
       </c>
       <c r="C37">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>24921.9673</v>
+        <v>22438.646835237301</v>
       </c>
       <c r="B38">
-        <v>-31.5</v>
+        <v>-36.299999999999997</v>
       </c>
       <c r="C38">
-        <v>164</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>25008.448909999999</v>
+        <v>22576.4507600826</v>
       </c>
       <c r="B39">
-        <v>-31.3</v>
+        <v>-36.1</v>
       </c>
       <c r="C39">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>25095.230609999999</v>
+        <v>22715.100989156599</v>
       </c>
       <c r="B40">
-        <v>-31.2</v>
+        <v>-35.799999999999997</v>
       </c>
       <c r="C40">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>25182.313450000001</v>
+        <v>22854.602719922601</v>
       </c>
       <c r="B41">
-        <v>-31</v>
+        <v>-35.5</v>
       </c>
       <c r="C41">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>25269.698469999999</v>
+        <v>22994.961181763501</v>
       </c>
       <c r="B42">
-        <v>-30.8</v>
+        <v>-35.299999999999997</v>
       </c>
       <c r="C42">
-        <v>162</v>
+        <v>171</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>25357.386740000002</v>
+        <v>23136.181636177698</v>
       </c>
       <c r="B43">
-        <v>-30.7</v>
+        <v>-35.1</v>
       </c>
       <c r="C43">
-        <v>162</v>
+        <v>171</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>25445.379280000001</v>
+        <v>23278.269376976401</v>
       </c>
       <c r="B44">
-        <v>-30.5</v>
+        <v>-34.799999999999997</v>
       </c>
       <c r="C44">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>25533.677169999999</v>
+        <v>23421.229730481999</v>
       </c>
       <c r="B45">
-        <v>-30.3</v>
+        <v>-34.6</v>
       </c>
       <c r="C45">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>25622.281470000002</v>
+        <v>23565.068055727901</v>
       </c>
       <c r="B46">
-        <v>-30.2</v>
+        <v>-34.299999999999997</v>
       </c>
       <c r="C46">
-        <v>160</v>
+        <v>171</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>25711.193230000001</v>
+        <v>23709.789744659101</v>
       </c>
       <c r="B47">
-        <v>-30</v>
+        <v>-34</v>
       </c>
       <c r="C47">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>25800.413519999998</v>
+        <v>23855.400222334501</v>
       </c>
       <c r="B48">
-        <v>-29.8</v>
+        <v>-33.700000000000003</v>
       </c>
       <c r="C48">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>25889.94341</v>
+        <v>24001.904947130599</v>
       </c>
       <c r="B49">
-        <v>-29.6</v>
-      </c>
-      <c r="C49">
-        <v>162</v>
+        <v>-33.299999999999997</v>
+      </c>
+      <c r="C49" s="1">
+        <v>171</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>25979.78398</v>
+        <v>24149.3094109454</v>
       </c>
       <c r="B50">
-        <v>-29.4</v>
+        <v>-33.1</v>
       </c>
       <c r="C50">
-        <v>162</v>
+        <v>171</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>26069.936310000001</v>
+        <v>24297.619139404898</v>
       </c>
       <c r="B51">
-        <v>-29.2</v>
+        <v>-32.799999999999997</v>
       </c>
       <c r="C51">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>26160.401470000001</v>
+        <v>24446.8396920698</v>
       </c>
       <c r="B52">
-        <v>-29</v>
+        <v>-32.5</v>
       </c>
       <c r="C52">
-        <v>162</v>
+        <v>176</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>26251.180550000001</v>
+        <v>24596.9766626442</v>
       </c>
       <c r="B53">
-        <v>-28.8</v>
+        <v>-32.200000000000003</v>
       </c>
       <c r="C53">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>26342.274649999999</v>
+        <v>24748.035679185101</v>
       </c>
       <c r="B54">
-        <v>-28.6</v>
+        <v>-31.9</v>
       </c>
       <c r="C54">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>26433.684850000001</v>
+        <v>24900.0224043136</v>
       </c>
       <c r="B55">
-        <v>-28.4</v>
+        <v>-31.6</v>
       </c>
       <c r="C55">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>26525.412260000001</v>
+        <v>25052.942535426901</v>
       </c>
       <c r="B56">
-        <v>-28.2</v>
+        <v>-31.3</v>
       </c>
       <c r="C56">
-        <v>160</v>
+        <v>171</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>26617.457969999999</v>
+        <v>25206.801804912098</v>
       </c>
       <c r="B57">
-        <v>-28</v>
+        <v>-31</v>
       </c>
       <c r="C57">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>26709.823079999998</v>
+        <v>25361.6059803608</v>
       </c>
       <c r="B58">
-        <v>-27.8</v>
+        <v>-30.6</v>
       </c>
       <c r="C58">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>26802.508709999998</v>
+        <v>25517.3608647857</v>
       </c>
       <c r="B59">
-        <v>-27.6</v>
+        <v>-30.2</v>
       </c>
       <c r="C59">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>26895.51597</v>
+        <v>25674.0722968378</v>
       </c>
       <c r="B60">
-        <v>-27.4</v>
+        <v>-29.9</v>
       </c>
       <c r="C60">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>26988.845979999998</v>
+        <v>25831.7461510254</v>
       </c>
       <c r="B61">
-        <v>-27.1</v>
+        <v>-29.5</v>
       </c>
       <c r="C61">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>27082.49984</v>
+        <v>25990.388337934299</v>
       </c>
       <c r="B62">
-        <v>-26.9</v>
+        <v>-29.2</v>
       </c>
       <c r="C62">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>27176.4787</v>
+        <v>26150.004804449301</v>
       </c>
       <c r="B63">
-        <v>-26.7</v>
+        <v>-28.8</v>
       </c>
       <c r="C63">
-        <v>158</v>
+        <v>169</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>27270.783670000001</v>
+        <v>26310.6015339775</v>
       </c>
       <c r="B64">
-        <v>-26.5</v>
+        <v>-28.4</v>
       </c>
       <c r="C64">
-        <v>157</v>
+        <v>166</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>27365.41589</v>
+        <v>26472.184546671899</v>
       </c>
       <c r="B65">
-        <v>-26.3</v>
+        <v>-28.1</v>
       </c>
       <c r="C65">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>27460.376489999999</v>
+        <v>26634.759899657602</v>
       </c>
       <c r="B66">
-        <v>-26</v>
+        <v>-27.8</v>
       </c>
       <c r="C66">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>27555.66661</v>
+        <v>26798.333687258801</v>
       </c>
       <c r="B67">
-        <v>-25.8</v>
+        <v>-27.4</v>
       </c>
       <c r="C67">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>27651.287400000001</v>
+        <v>26962.912041226999</v>
       </c>
       <c r="B68">
-        <v>-25.6</v>
+        <v>-27</v>
       </c>
       <c r="C68">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>27747.24</v>
+        <v>27128.501130971301</v>
       </c>
       <c r="B69">
-        <v>-25.3</v>
+        <v>-26.4</v>
       </c>
       <c r="C69">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>27843.525570000002</v>
+        <v>27295.107163789002</v>
       </c>
       <c r="B70">
-        <v>-25.1</v>
+        <v>-26</v>
       </c>
       <c r="C70">
-        <v>157</v>
+        <v>167</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>27940.145250000001</v>
+        <v>27462.736385099099</v>
       </c>
       <c r="B71">
-        <v>-24.9</v>
+        <v>-25.6</v>
       </c>
       <c r="C71">
-        <v>154</v>
+        <v>166</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>28000</v>
+        <v>27631.395078675701</v>
       </c>
       <c r="B72">
-        <v>-24.6</v>
+        <v>-25.2</v>
       </c>
       <c r="C72">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>28114.91216</v>
+        <v>27801.089566883998</v>
       </c>
       <c r="B73">
-        <v>-24.3</v>
+        <v>-24.7</v>
       </c>
       <c r="C73">
-        <v>154</v>
+        <v>166</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>28230.295910000001</v>
+        <v>27971.826210917101</v>
       </c>
       <c r="B74">
-        <v>-24</v>
+        <v>-24.2</v>
       </c>
       <c r="C74">
-        <v>153</v>
+        <v>165</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>28346.15321</v>
+        <v>28143.611411034501</v>
       </c>
       <c r="B75">
-        <v>-23.7</v>
+        <v>-23.8</v>
       </c>
       <c r="C75">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>28462.485980000001</v>
+        <v>28316.451606801998</v>
       </c>
       <c r="B76">
-        <v>-23.4</v>
+        <v>-23.3</v>
       </c>
       <c r="C76">
-        <v>152</v>
+        <v>162</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>28579.296180000001</v>
+        <v>28490.353277333299</v>
       </c>
       <c r="B77">
-        <v>-23.1</v>
+        <v>-22.9</v>
       </c>
       <c r="C77">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>28696.585770000002</v>
+        <v>28665.322941532399</v>
       </c>
       <c r="B78">
-        <v>-22.8</v>
+        <v>-22.4</v>
       </c>
       <c r="C78">
-        <v>151</v>
+        <v>164</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>28814.35672</v>
+        <v>28841.3671583387</v>
       </c>
       <c r="B79">
-        <v>-22.4</v>
+        <v>-21.8</v>
       </c>
       <c r="C79">
-        <v>151</v>
+        <v>163</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>28932.611000000001</v>
+        <v>29018.492526971899</v>
       </c>
       <c r="B80">
-        <v>-22.1</v>
+        <v>-21.2</v>
       </c>
       <c r="C80">
-        <v>150</v>
+        <v>162</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>29051.350600000002</v>
+        <v>29196.7056871805</v>
       </c>
       <c r="B81">
-        <v>-21.8</v>
+        <v>-20.6</v>
       </c>
       <c r="C81">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>29170.577509999999</v>
+        <v>29376.013319489601</v>
       </c>
       <c r="B82">
-        <v>-21.4</v>
+        <v>-20</v>
       </c>
       <c r="C82">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>29290.293720000001</v>
+        <v>29556.422145452099</v>
       </c>
       <c r="B83">
-        <v>-21.1</v>
+        <v>-19.399999999999999</v>
       </c>
       <c r="C83">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>29410.501250000001</v>
+        <v>29737.938927900399</v>
       </c>
       <c r="B84">
-        <v>-20.7</v>
+        <v>-18.7</v>
       </c>
       <c r="C84">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>29531.202109999998</v>
+        <v>29920.570471200001</v>
       </c>
       <c r="B85">
-        <v>-20.399999999999999</v>
+        <v>-18.100000000000001</v>
       </c>
       <c r="C85">
-        <v>147</v>
+        <v>158</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>29652.39833</v>
+        <v>30104.323621504402</v>
       </c>
       <c r="B86">
-        <v>-20</v>
+        <v>-17.399999999999999</v>
       </c>
       <c r="C86">
-        <v>146</v>
+        <v>156</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>29774.091939999998</v>
+        <v>30289.205267011701</v>
       </c>
       <c r="B87">
-        <v>-19.600000000000001</v>
+        <v>-16.7</v>
       </c>
       <c r="C87">
-        <v>146</v>
+        <v>156</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>29896.28498</v>
+        <v>30475.2223382232</v>
       </c>
       <c r="B88">
-        <v>-19.2</v>
+        <v>-15.9</v>
       </c>
       <c r="C88">
-        <v>143</v>
+        <v>155</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>30018.979500000001</v>
+        <v>30662.381808202699</v>
       </c>
       <c r="B89">
-        <v>-18.899999999999999</v>
+        <v>-15.1</v>
       </c>
       <c r="C89">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>30142.17756</v>
+        <v>30850.690692838201</v>
       </c>
       <c r="B90">
-        <v>-18.5</v>
+        <v>-14.2</v>
       </c>
       <c r="C90">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>30265.881229999999</v>
+        <v>31040.156051105001</v>
       </c>
       <c r="B91">
-        <v>-18.100000000000001</v>
+        <v>-13.3</v>
       </c>
       <c r="C91">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>30390.09258</v>
+        <v>31230.784985329999</v>
       </c>
       <c r="B92">
-        <v>-17.600000000000001</v>
+        <v>-12.4</v>
       </c>
       <c r="C92">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>30514.813689999999</v>
+        <v>31422.584641458099</v>
       </c>
       <c r="B93">
-        <v>-17.2</v>
+        <v>-11.4</v>
       </c>
       <c r="C93">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>30640.04665</v>
+        <v>31615.56220932</v>
       </c>
       <c r="B94">
-        <v>-16.8</v>
+        <v>-10.3</v>
       </c>
       <c r="C94">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>30765.793580000001</v>
+        <v>31809.7249229019</v>
       </c>
       <c r="B95">
-        <v>-16.3</v>
+        <v>-9.3000000000000007</v>
       </c>
       <c r="C95">
         <v>138</v>
@@ -1401,1275 +1405,1275 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>30892.056570000001</v>
+        <v>32005.080060616401</v>
       </c>
       <c r="B96">
-        <v>-15.9</v>
+        <v>-8.1</v>
       </c>
       <c r="C96">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>31018.837739999999</v>
+        <v>32201.634945575599</v>
       </c>
       <c r="B97">
-        <v>-15.4</v>
+        <v>-7</v>
       </c>
       <c r="C97">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>31146.139230000001</v>
+        <v>32399.396945865501</v>
       </c>
       <c r="B98">
-        <v>-15</v>
+        <v>-5.7</v>
       </c>
       <c r="C98">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>31273.963159999999</v>
+        <v>32598.373474822201</v>
       </c>
       <c r="B99">
-        <v>-14.5</v>
+        <v>-4.3</v>
       </c>
       <c r="C99">
-        <v>132</v>
+        <v>116</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>31402.311679999999</v>
+        <v>32798.5719913098</v>
       </c>
       <c r="B100">
-        <v>-14</v>
+        <v>-3.1</v>
       </c>
       <c r="C100">
-        <v>130</v>
+        <v>107</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>31531.18694</v>
+        <v>32999.999999999898</v>
       </c>
       <c r="B101">
-        <v>-13.5</v>
+        <v>-1.9</v>
       </c>
       <c r="C101">
-        <v>127</v>
+        <v>96</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>31660.591110000001</v>
+        <v>33005.358769999999</v>
       </c>
       <c r="B102">
-        <v>-13</v>
+        <v>-1.8</v>
       </c>
       <c r="C102">
-        <v>125</v>
+        <v>96</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>31790.52635</v>
+        <v>33152.989459999997</v>
       </c>
       <c r="B103">
-        <v>-12.5</v>
+        <v>-1.2</v>
       </c>
       <c r="C103">
-        <v>125</v>
+        <v>86</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>31920.994849999999</v>
+        <v>33301.280489999997</v>
       </c>
       <c r="B104">
-        <v>-12</v>
+        <v>-0.8</v>
       </c>
       <c r="C104">
-        <v>122</v>
+        <v>78</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>32051.998790000001</v>
+        <v>33450.234819999998</v>
       </c>
       <c r="B105">
-        <v>-11.4</v>
+        <v>-0.6</v>
       </c>
       <c r="C105">
-        <v>121</v>
+        <v>69</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>32183.540369999999</v>
+        <v>33599.855409999996</v>
       </c>
       <c r="B106">
-        <v>-10.9</v>
+        <v>-0.5</v>
       </c>
       <c r="C106">
-        <v>118</v>
+        <v>61</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>32315.621800000001</v>
+        <v>33750.145239999998</v>
       </c>
       <c r="B107">
-        <v>-10.3</v>
+        <v>-0.6</v>
       </c>
       <c r="C107">
-        <v>115</v>
+        <v>52</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>32448.245299999999</v>
+        <v>33901.107309999999</v>
       </c>
       <c r="B108">
-        <v>-9.8000000000000007</v>
+        <v>-0.8</v>
       </c>
       <c r="C108">
-        <v>113</v>
+        <v>44</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>32581.413079999998</v>
+        <v>34052.744619999998</v>
       </c>
       <c r="B109">
-        <v>-9.1999999999999993</v>
+        <v>-1</v>
       </c>
       <c r="C109">
-        <v>110</v>
+        <v>38</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>32715.127380000002</v>
+        <v>34205.060189999997</v>
       </c>
       <c r="B110">
-        <v>-8.6</v>
+        <v>-1.3</v>
       </c>
       <c r="C110">
-        <v>107</v>
+        <v>31</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>32849.390449999999</v>
+        <v>34358.057059999999</v>
       </c>
       <c r="B111">
-        <v>-8.1</v>
+        <v>-1.6</v>
       </c>
       <c r="C111">
-        <v>103</v>
+        <v>26</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>32984.204530000003</v>
+        <v>34511.738279999998</v>
       </c>
       <c r="B112">
-        <v>-7.5</v>
+        <v>-2</v>
       </c>
       <c r="C112">
-        <v>99</v>
+        <v>22</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>33119.571889999999</v>
+        <v>34666.106899999999</v>
       </c>
       <c r="B113">
-        <v>-6.9</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="C113">
-        <v>96</v>
+        <v>17</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>33255.4948</v>
+        <v>34821.165999999997</v>
       </c>
       <c r="B114">
-        <v>-6.4</v>
+        <v>-2.5</v>
       </c>
       <c r="C114">
-        <v>92</v>
+        <v>13</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>33391.975539999999</v>
+        <v>34976.918669999999</v>
       </c>
       <c r="B115">
-        <v>-5.8</v>
+        <v>-2.8</v>
       </c>
       <c r="C115">
-        <v>88</v>
+        <v>11</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>33529.016389999997</v>
+        <v>35133.368009999998</v>
       </c>
       <c r="B116">
-        <v>-5.3</v>
+        <v>-2.9</v>
       </c>
       <c r="C116">
-        <v>83</v>
+        <v>9</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>33666.619659999997</v>
+        <v>35290.517140000004</v>
       </c>
       <c r="B117">
-        <v>-4.8</v>
+        <v>-3</v>
       </c>
       <c r="C117">
-        <v>78</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>33804.787660000002</v>
+        <v>35448.369189999998</v>
       </c>
       <c r="B118">
-        <v>-4.2</v>
+        <v>-3</v>
       </c>
       <c r="C118">
-        <v>73</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>33943.522700000001</v>
+        <v>35606.92729</v>
       </c>
       <c r="B119">
-        <v>-3.8</v>
+        <v>-2.9</v>
       </c>
       <c r="C119">
-        <v>68</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>34082.827109999998</v>
+        <v>35766.194620000002</v>
       </c>
       <c r="B120">
-        <v>-3.3</v>
+        <v>-2.9</v>
       </c>
       <c r="C120">
-        <v>63</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>34222.703220000003</v>
+        <v>35926.174339999998</v>
       </c>
       <c r="B121">
-        <v>-2.9</v>
+        <v>-2.7</v>
       </c>
       <c r="C121">
-        <v>57</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>34363.153389999999</v>
+        <v>36086.869630000001</v>
       </c>
       <c r="B122">
-        <v>-2.5</v>
+        <v>-2.6</v>
       </c>
       <c r="C122">
-        <v>52</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>34504.179960000001</v>
+        <v>36248.283710000003</v>
       </c>
       <c r="B123">
-        <v>-2.2000000000000002</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="C123">
-        <v>45</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>34645.785309999999</v>
+        <v>36410.419779999997</v>
       </c>
       <c r="B124">
-        <v>-1.8</v>
+        <v>-2.1</v>
       </c>
       <c r="C124">
-        <v>40</v>
+        <v>-19</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>34787.971810000003</v>
+        <v>36573.281069999997</v>
       </c>
       <c r="B125">
-        <v>-1.5</v>
+        <v>-1.7</v>
       </c>
       <c r="C125">
-        <v>34</v>
+        <v>-24</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>34930.741840000002</v>
+        <v>36736.87083</v>
       </c>
       <c r="B126">
-        <v>-1.3</v>
+        <v>-1.4</v>
       </c>
       <c r="C126">
-        <v>27</v>
+        <v>-29</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>35074.097800000003</v>
+        <v>36901.192309999999</v>
       </c>
       <c r="B127">
         <v>-1</v>
       </c>
       <c r="C127">
-        <v>22</v>
+        <v>-35</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>35218.042090000003</v>
+        <v>37066.248800000001</v>
       </c>
       <c r="B128">
-        <v>-0.8</v>
+        <v>-0.7</v>
       </c>
       <c r="C128">
-        <v>14</v>
+        <v>-42</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>35362.577129999998</v>
+        <v>37232.043570000002</v>
       </c>
       <c r="B129">
-        <v>-0.6</v>
+        <v>-0.3</v>
       </c>
       <c r="C129">
-        <v>9</v>
+        <v>-51</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>35507.705349999997</v>
+        <v>37398.57993</v>
       </c>
       <c r="B130">
-        <v>-0.4</v>
+        <v>-0.1</v>
       </c>
       <c r="C130">
-        <v>1</v>
+        <v>-58</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>35653.429170000003</v>
+        <v>37565.861190000003</v>
       </c>
       <c r="B131">
-        <v>-0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="C131">
-        <v>-5</v>
+        <v>-68</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>35799.751040000003</v>
+        <v>37733.89069</v>
       </c>
       <c r="B132">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="C132">
-        <v>-12</v>
+        <v>-78</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>35946.673419999999</v>
+        <v>37902.671779999997</v>
       </c>
       <c r="B133">
-        <v>-0.1</v>
+        <v>-0.6</v>
       </c>
       <c r="C133">
-        <v>-20</v>
+        <v>-88</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>36094.198770000003</v>
+        <v>38072.20781</v>
       </c>
       <c r="B134">
-        <v>-0.1</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="C134">
-        <v>-26</v>
+        <v>-95</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>36242.329570000002</v>
+        <v>38242.50217</v>
       </c>
       <c r="B135">
-        <v>-0.2</v>
+        <v>-1.8</v>
       </c>
       <c r="C135">
-        <v>-33</v>
+        <v>-103</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>36391.068290000003</v>
+        <v>38413.558239999998</v>
       </c>
       <c r="B136">
-        <v>-0.4</v>
+        <v>-2.5</v>
       </c>
       <c r="C136">
-        <v>-40</v>
+        <v>-109</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>36540.417439999997</v>
+        <v>38585.379430000001</v>
       </c>
       <c r="B137">
-        <v>-0.6</v>
+        <v>-3.3</v>
       </c>
       <c r="C137">
-        <v>-47</v>
+        <v>-115</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>36690.379520000002</v>
+        <v>38757.969169999997</v>
       </c>
       <c r="B138">
-        <v>-0.8</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="C138">
-        <v>-53</v>
+        <v>-120</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>36840.957040000001</v>
+        <v>38931.330889999997</v>
       </c>
       <c r="B139">
-        <v>-1.1000000000000001</v>
+        <v>-4.9000000000000004</v>
       </c>
       <c r="C139">
-        <v>-60</v>
+        <v>-124</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>36992.152540000003</v>
+        <v>39105.46804</v>
       </c>
       <c r="B140">
-        <v>-1.5</v>
+        <v>-5.6</v>
       </c>
       <c r="C140">
-        <v>-66</v>
+        <v>-130</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>37143.968540000002</v>
+        <v>39280.384100000003</v>
       </c>
       <c r="B141">
-        <v>-1.9</v>
+        <v>-6.4</v>
       </c>
       <c r="C141">
-        <v>-72</v>
+        <v>-133</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>37296.407590000003</v>
+        <v>39456.082540000003</v>
       </c>
       <c r="B142">
-        <v>-2.4</v>
+        <v>-7.2</v>
       </c>
       <c r="C142">
-        <v>-78</v>
+        <v>-137</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>37449.472260000002</v>
+        <v>39632.566870000002</v>
       </c>
       <c r="B143">
-        <v>-2.9</v>
+        <v>-8</v>
       </c>
       <c r="C143">
-        <v>-83</v>
+        <v>-141</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>37603.165099999998</v>
+        <v>39809.840609999999</v>
       </c>
       <c r="B144">
-        <v>-3.4</v>
+        <v>-8.8000000000000007</v>
       </c>
       <c r="C144">
-        <v>-88</v>
+        <v>-144</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>37757.488709999998</v>
+        <v>39987.907270000003</v>
       </c>
       <c r="B145">
-        <v>-3.9</v>
+        <v>-9.6</v>
       </c>
       <c r="C145">
-        <v>-93</v>
+        <v>-144</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>37912.445650000001</v>
+        <v>40166.770420000001</v>
       </c>
       <c r="B146">
-        <v>-4.5</v>
+        <v>-10.3</v>
       </c>
       <c r="C146">
-        <v>-97</v>
+        <v>-148</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>38068.038540000001</v>
+        <v>40346.43361</v>
       </c>
       <c r="B147">
-        <v>-5.0999999999999996</v>
+        <v>-11.1</v>
       </c>
       <c r="C147">
-        <v>-101</v>
+        <v>-149</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>38224.269979999997</v>
+        <v>40526.900419999998</v>
       </c>
       <c r="B148">
-        <v>-5.7</v>
+        <v>-11.8</v>
       </c>
       <c r="C148">
-        <v>-106</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>38381.142599999999</v>
+        <v>40708.174449999999</v>
       </c>
       <c r="B149">
-        <v>-6.2</v>
+        <v>-12.5</v>
       </c>
       <c r="C149">
-        <v>-109</v>
+        <v>-151</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>38538.659030000003</v>
+        <v>40890.259299999998</v>
       </c>
       <c r="B150">
-        <v>-6.8</v>
+        <v>-13</v>
       </c>
       <c r="C150">
-        <v>-111</v>
+        <v>-156</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>38696.821900000003</v>
+        <v>41073.158600000002</v>
       </c>
       <c r="B151">
-        <v>-7.4</v>
+        <v>-13.6</v>
       </c>
       <c r="C151">
-        <v>-113</v>
+        <v>-157</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>38855.633869999998</v>
+        <v>41256.875999999997</v>
       </c>
       <c r="B152">
-        <v>-7.9</v>
+        <v>-14.3</v>
       </c>
       <c r="C152">
-        <v>-118</v>
+        <v>-157</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>39015.097609999997</v>
+        <v>41441.415159999997</v>
       </c>
       <c r="B153">
-        <v>-8.5</v>
+        <v>-14.8</v>
       </c>
       <c r="C153">
-        <v>-120</v>
+        <v>-160</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>39175.215790000002</v>
+        <v>41626.779750000002</v>
       </c>
       <c r="B154">
-        <v>-9.1</v>
+        <v>-15.4</v>
       </c>
       <c r="C154">
-        <v>-122</v>
+        <v>-160</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>39335.991099999999</v>
+        <v>41812.973460000001</v>
       </c>
       <c r="B155">
-        <v>-9.6999999999999993</v>
+        <v>-16</v>
       </c>
       <c r="C155">
-        <v>-124</v>
+        <v>-162</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>39497.426229999997</v>
+        <v>42000</v>
       </c>
       <c r="B156">
-        <v>-10.3</v>
+        <v>-16.5</v>
       </c>
       <c r="C156">
-        <v>-128</v>
+        <v>-161</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>39659.523889999997</v>
+        <v>42022.769476587397</v>
       </c>
       <c r="B157">
-        <v>-10.8</v>
+        <v>-16.600000000000001</v>
       </c>
       <c r="C157">
-        <v>-130</v>
+        <v>-163</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>39822.286800000002</v>
+        <v>42232.990781564898</v>
       </c>
       <c r="B158">
-        <v>-11.4</v>
+        <v>-17.2</v>
       </c>
       <c r="C158">
-        <v>-130</v>
+        <v>-163</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>39985.717680000002</v>
+        <v>42444.263730630002</v>
       </c>
       <c r="B159">
-        <v>-11.9</v>
+        <v>-17.8</v>
       </c>
       <c r="C159">
-        <v>-133</v>
+        <v>-163</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>40149.819289999999</v>
+        <v>42656.593584692397</v>
       </c>
       <c r="B160">
-        <v>-12.4</v>
+        <v>-18.3</v>
       </c>
       <c r="C160">
-        <v>-135</v>
+        <v>-163</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>40314.594380000002</v>
+        <v>42869.985630979703</v>
       </c>
       <c r="B161">
-        <v>-13</v>
+        <v>-18.8</v>
       </c>
       <c r="C161">
-        <v>-136</v>
+        <v>-166</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>40480.045700000002</v>
+        <v>43084.445183169199</v>
       </c>
       <c r="B162">
-        <v>-13.5</v>
+        <v>-19.3</v>
       </c>
       <c r="C162">
-        <v>-137</v>
+        <v>-166</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>40646.176030000002</v>
+        <v>43299.977581520201</v>
       </c>
       <c r="B163">
-        <v>-14</v>
+        <v>-19.8</v>
       </c>
       <c r="C163">
-        <v>-138</v>
+        <v>-166</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>40812.988169999997</v>
+        <v>43516.588193006697</v>
       </c>
       <c r="B164">
-        <v>-14.4</v>
+        <v>-20.3</v>
       </c>
       <c r="C164">
-        <v>-141</v>
+        <v>-166</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>40980.484900000003</v>
+        <v>43734.282411451801</v>
       </c>
       <c r="B165">
-        <v>-14.9</v>
+        <v>-20.8</v>
       </c>
       <c r="C165">
-        <v>-142</v>
+        <v>-167</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>41148.669040000001</v>
+        <v>43953.065657660998</v>
       </c>
       <c r="B166">
-        <v>-15.4</v>
+        <v>-21.3</v>
       </c>
       <c r="C166">
-        <v>-143</v>
+        <v>-164</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>41317.543409999998</v>
+        <v>44172.943379558099</v>
       </c>
       <c r="B167">
-        <v>-15.9</v>
+        <v>-21.7</v>
       </c>
       <c r="C167">
-        <v>-144</v>
+        <v>-169</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>41487.110840000001</v>
+        <v>44393.921052320002</v>
       </c>
       <c r="B168">
-        <v>-16.3</v>
+        <v>-22.3</v>
       </c>
       <c r="C168">
-        <v>-145</v>
+        <v>-166</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>41657.374179999999</v>
+        <v>44616.004178513896</v>
       </c>
       <c r="B169">
-        <v>-16.7</v>
+        <v>-22.7</v>
       </c>
       <c r="C169">
-        <v>-147</v>
+        <v>-168</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>41828.33627</v>
+        <v>44839.198288233703</v>
       </c>
       <c r="B170">
-        <v>-17.2</v>
+        <v>-23.1</v>
       </c>
       <c r="C170">
-        <v>-147</v>
+        <v>-169</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>42000</v>
+        <v>45063.508939238098</v>
       </c>
       <c r="B171">
-        <v>-17.600000000000001</v>
+        <v>-23.5</v>
       </c>
       <c r="C171">
-        <v>-148</v>
+        <v>-166</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>42058.106160000003</v>
+        <v>45288.941717088397</v>
       </c>
       <c r="B172">
-        <v>-17.600000000000001</v>
+        <v>-23.8</v>
       </c>
       <c r="C172">
-        <v>-148</v>
+        <v>-169</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>42226.852630000001</v>
+        <v>45515.502235288397</v>
       </c>
       <c r="B173">
-        <v>-18</v>
+        <v>-24.2</v>
       </c>
       <c r="C173">
-        <v>-150</v>
+        <v>-170</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>42396.276140000002</v>
+        <v>45743.196135423597</v>
       </c>
       <c r="B174">
-        <v>-18.399999999999999</v>
+        <v>-24.6</v>
       </c>
       <c r="C174">
-        <v>-150</v>
+        <v>-171</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>42566.379419999997</v>
+        <v>45972.029087301999</v>
       </c>
       <c r="B175">
-        <v>-18.7</v>
+        <v>-25</v>
       </c>
       <c r="C175">
-        <v>-152</v>
+        <v>-170</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>42737.16519</v>
+        <v>46202.006789094899</v>
       </c>
       <c r="B176">
-        <v>-19.100000000000001</v>
+        <v>-25.3</v>
       </c>
       <c r="C176">
-        <v>-151</v>
+        <v>-172</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>42908.636189999997</v>
+        <v>46433.134967479098</v>
       </c>
       <c r="B177">
-        <v>-19.5</v>
+        <v>-25.7</v>
       </c>
       <c r="C177">
-        <v>-151</v>
+        <v>-173</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>43080.795169999998</v>
+        <v>46665.419377779501</v>
       </c>
       <c r="B178">
-        <v>-19.899999999999999</v>
+        <v>-26.1</v>
       </c>
       <c r="C178">
-        <v>-154</v>
+        <v>-171</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>43253.644899999999</v>
+        <v>46898.865804112298</v>
       </c>
       <c r="B179">
-        <v>-20.2</v>
+        <v>-26.5</v>
       </c>
       <c r="C179">
-        <v>-155</v>
+        <v>-170</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>43427.188130000002</v>
+        <v>47133.480059529204</v>
       </c>
       <c r="B180">
-        <v>-20.6</v>
+        <v>-26.8</v>
       </c>
       <c r="C180">
-        <v>-155</v>
+        <v>-172</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>43601.427660000001</v>
+        <v>47369.267986161904</v>
       </c>
       <c r="B181">
-        <v>-20.9</v>
+        <v>-27.1</v>
       </c>
       <c r="C181">
-        <v>-154</v>
+        <v>-171</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>43776.366269999999</v>
+        <v>47606.235455367503</v>
       </c>
       <c r="B182">
-        <v>-21.3</v>
+        <v>-27.4</v>
       </c>
       <c r="C182">
-        <v>-155</v>
+        <v>-169</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>43952.006780000003</v>
+        <v>47844.388367875297</v>
       </c>
       <c r="B183">
-        <v>-21.6</v>
+        <v>-27.7</v>
       </c>
       <c r="C183">
-        <v>-155</v>
+        <v>-173</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>44128.351990000003</v>
+        <v>48083.732653933097</v>
       </c>
       <c r="B184">
-        <v>-21.9</v>
+        <v>-28</v>
       </c>
       <c r="C184">
-        <v>-156</v>
+        <v>-171</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>44305.404750000002</v>
+        <v>48324.274273455099</v>
       </c>
       <c r="B185">
-        <v>-22.3</v>
+        <v>-28.3</v>
       </c>
       <c r="C185">
-        <v>-158</v>
+        <v>-171</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>44483.167869999997</v>
+        <v>48566.019216170498</v>
       </c>
       <c r="B186">
-        <v>-22.6</v>
+        <v>-28.6</v>
       </c>
       <c r="C186">
-        <v>-156</v>
+        <v>-171</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>44661.644229999998</v>
+        <v>48808.973501772001</v>
       </c>
       <c r="B187">
-        <v>-22.9</v>
+        <v>-28.9</v>
       </c>
       <c r="C187">
-        <v>-159</v>
+        <v>-174</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>44840.836669999997</v>
+        <v>49053.1431800668</v>
       </c>
       <c r="B188">
-        <v>-23.2</v>
+        <v>-29.2</v>
       </c>
       <c r="C188">
-        <v>-158</v>
+        <v>-172</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>45020.748059999998</v>
+        <v>49298.534331126197</v>
       </c>
       <c r="B189">
-        <v>-23.5</v>
+        <v>-29.6</v>
       </c>
       <c r="C189">
-        <v>-159</v>
+        <v>-176</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>45201.381309999997</v>
+        <v>49545.1530654374</v>
       </c>
       <c r="B190">
-        <v>-23.8</v>
+        <v>-29.9</v>
       </c>
       <c r="C190">
-        <v>-158</v>
+        <v>-175</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>45382.739289999998</v>
+        <v>49793.005524055799</v>
       </c>
       <c r="B191">
-        <v>-24.1</v>
+        <v>-30.1</v>
       </c>
       <c r="C191">
-        <v>-160</v>
+        <v>-174</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>45564.824919999999</v>
+        <v>50042.097878757697</v>
       </c>
       <c r="B192">
-        <v>-24.4</v>
+        <v>-30.3</v>
       </c>
       <c r="C192">
-        <v>-160</v>
+        <v>-172</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>45747.641130000004</v>
+        <v>50292.436332194098</v>
       </c>
       <c r="B193">
-        <v>-24.7</v>
+        <v>-30.6</v>
       </c>
       <c r="C193">
-        <v>-160</v>
+        <v>-171</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>45931.19083</v>
+        <v>50544.027118045102</v>
       </c>
       <c r="B194">
-        <v>-25</v>
+        <v>-30.9</v>
       </c>
       <c r="C194">
-        <v>-161</v>
+        <v>-174</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>46115.476970000003</v>
+        <v>50796.876501175298</v>
       </c>
       <c r="B195">
-        <v>-25.2</v>
+        <v>-31.1</v>
       </c>
       <c r="C195">
-        <v>-161</v>
+        <v>-178</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>46300.502509999998</v>
+        <v>51050.9907777892</v>
       </c>
       <c r="B196">
-        <v>-25.5</v>
+        <v>-31.4</v>
       </c>
       <c r="C196">
-        <v>-162</v>
+        <v>-191</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>46486.270409999997</v>
+        <v>51306.376275588897</v>
       </c>
       <c r="B197">
-        <v>-25.8</v>
+        <v>-31.7</v>
       </c>
       <c r="C197">
-        <v>-164</v>
+        <v>-179</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>46672.783649999998</v>
+        <v>51563.039353931003</v>
       </c>
       <c r="B198">
-        <v>-26.1</v>
+        <v>-32</v>
       </c>
       <c r="C198">
-        <v>-162</v>
+        <v>-175</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>46860.045230000003</v>
+        <v>51820.986403985102</v>
       </c>
       <c r="B199">
-        <v>-26.3</v>
+        <v>-32.200000000000003</v>
       </c>
       <c r="C199">
-        <v>-161</v>
+        <v>-175</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>47048.058140000001</v>
+        <v>52080.223848893103</v>
       </c>
       <c r="B200">
-        <v>-26.6</v>
+        <v>-32.5</v>
       </c>
       <c r="C200">
-        <v>-165</v>
+        <v>-174</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>47236.825409999998</v>
+        <v>52340.758143928899</v>
       </c>
       <c r="B201">
-        <v>-26.9</v>
+        <v>-32.700000000000003</v>
       </c>
       <c r="C201">
-        <v>-164</v>
+        <v>-172</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>47426.350039999998</v>
+        <v>52602.5957766594</v>
       </c>
       <c r="B202">
-        <v>-27.1</v>
+        <v>-33</v>
       </c>
       <c r="C202">
-        <v>-163</v>
+        <v>-177</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>47616.6351</v>
+        <v>52865.743267105798</v>
       </c>
       <c r="B203">
-        <v>-27.4</v>
+        <v>-33.1</v>
       </c>
       <c r="C203">
-        <v>-162</v>
+        <v>-177</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>47807.683620000003</v>
+        <v>53130.207167906301</v>
       </c>
       <c r="B204">
-        <v>-27.6</v>
+        <v>-33.4</v>
       </c>
       <c r="C204">
-        <v>-164</v>
+        <v>-178</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>47999.498659999997</v>
+        <v>53395.994064478698</v>
       </c>
       <c r="B205">
-        <v>-27.9</v>
+        <v>-33.6</v>
       </c>
       <c r="C205">
-        <v>-165</v>
+        <v>-176</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>48192.083319999998</v>
+        <v>53663.110575185099</v>
       </c>
       <c r="B206">
-        <v>-28.1</v>
+        <v>-33.9</v>
       </c>
       <c r="C206">
-        <v>-166</v>
+        <v>-178</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>48385.44066</v>
+        <v>53931.563351496101</v>
       </c>
       <c r="B207">
-        <v>-28.3</v>
+        <v>-34.1</v>
       </c>
       <c r="C207">
-        <v>-164</v>
+        <v>-190</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>48579.573799999998</v>
+        <v>54201.359078156704</v>
       </c>
       <c r="B208">
-        <v>-28.5</v>
+        <v>-34.299999999999997</v>
       </c>
       <c r="C208">
-        <v>-164</v>
+        <v>-176</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>48774.485840000001</v>
+        <v>54472.504473352899</v>
       </c>
       <c r="B209">
-        <v>-28.8</v>
+        <v>-34.5</v>
       </c>
       <c r="C209">
-        <v>-167</v>
+        <v>-187</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>48970.179920000002</v>
+        <v>54745.006288878401</v>
       </c>
       <c r="B210">
-        <v>-29</v>
+        <v>-34.9</v>
       </c>
       <c r="C210">
-        <v>-164</v>
+        <v>-176</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>49166.659160000003</v>
+        <v>55018.871310303497</v>
       </c>
       <c r="B211">
-        <v>-29.2</v>
+        <v>-35.1</v>
       </c>
       <c r="C211">
         <v>-170</v>
@@ -2677,313 +2681,160 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>49363.926720000003</v>
+        <v>55294.106357143697</v>
       </c>
       <c r="B212">
-        <v>-29.5</v>
+        <v>-35.299999999999997</v>
       </c>
       <c r="C212">
-        <v>-164</v>
+        <v>-189</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>49561.985760000003</v>
+        <v>55570.7182830292</v>
       </c>
       <c r="B213">
-        <v>-29.7</v>
+        <v>-35.5</v>
       </c>
       <c r="C213">
-        <v>-165</v>
+        <v>-180</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>49760.839460000003</v>
+        <v>55848.713975876301</v>
       </c>
       <c r="B214">
-        <v>-29.9</v>
+        <v>-35.6</v>
       </c>
       <c r="C214">
-        <v>-166</v>
+        <v>-174</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215">
-        <v>49960.491000000002</v>
+        <v>56128.100358058102</v>
       </c>
       <c r="B215">
-        <v>-30.1</v>
+        <v>-35.799999999999997</v>
       </c>
       <c r="C215">
-        <v>-167</v>
+        <v>-176</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>50160.943590000003</v>
+        <v>56408.884386577498</v>
       </c>
       <c r="B216">
-        <v>-30.3</v>
+        <v>-36.1</v>
       </c>
       <c r="C216">
-        <v>-167</v>
+        <v>-176</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217">
-        <v>50362.200440000001</v>
+        <v>56691.073053240099</v>
       </c>
       <c r="B217">
-        <v>-30.5</v>
+        <v>-36.299999999999997</v>
       </c>
       <c r="C217">
-        <v>-167</v>
+        <v>-175</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>50564.264779999998</v>
+        <v>56974.673384828602</v>
       </c>
       <c r="B218">
-        <v>-30.8</v>
-      </c>
-      <c r="C218">
-        <v>-169</v>
+        <v>-36.4</v>
+      </c>
+      <c r="C218" s="1">
+        <v>-173</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>50767.139840000003</v>
+        <v>57259.692443277403</v>
       </c>
       <c r="B219">
-        <v>-31</v>
+        <v>-36.700000000000003</v>
       </c>
       <c r="C219">
-        <v>-169</v>
+        <v>-186</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>50970.828889999997</v>
+        <v>57546.137325848598</v>
       </c>
       <c r="B220">
-        <v>-31.2</v>
+        <v>-37</v>
       </c>
       <c r="C220">
-        <v>-165</v>
+        <v>-175</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>51175.335180000002</v>
+        <v>57834.015165308701</v>
       </c>
       <c r="B221">
-        <v>-31.4</v>
+        <v>-37.1</v>
       </c>
       <c r="C221">
-        <v>-173</v>
+        <v>-177</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>51380.661990000001</v>
+        <v>58123.333130106701</v>
       </c>
       <c r="B222">
-        <v>-31.6</v>
+        <v>-37.299999999999997</v>
       </c>
       <c r="C222">
-        <v>-166</v>
+        <v>-180</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>51586.812619999997</v>
+        <v>58414.098424551703</v>
       </c>
       <c r="B223">
-        <v>-31.8</v>
+        <v>-37.5</v>
       </c>
       <c r="C223">
-        <v>-170</v>
+        <v>-189</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224">
-        <v>51793.790370000002</v>
+        <v>58706.318288992901</v>
       </c>
       <c r="B224">
-        <v>-32</v>
-      </c>
-      <c r="C224">
-        <v>-169</v>
+        <v>-37.6</v>
+      </c>
+      <c r="C224" s="1">
+        <v>-182</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225">
-        <v>52001.598570000002</v>
+        <v>58999.999999999898</v>
       </c>
       <c r="B225">
-        <v>-32.1</v>
+        <v>-37.799999999999997</v>
       </c>
       <c r="C225">
-        <v>-169</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A226">
-        <v>52210.240539999999</v>
-      </c>
-      <c r="B226">
-        <v>-32.4</v>
-      </c>
-      <c r="C226">
-        <v>-167</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A227">
-        <v>52419.719620000003</v>
-      </c>
-      <c r="B227">
-        <v>-32.6</v>
-      </c>
-      <c r="C227">
-        <v>-175</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A228">
-        <v>52630.03918</v>
-      </c>
-      <c r="B228">
-        <v>-32.700000000000003</v>
-      </c>
-      <c r="C228">
-        <v>-171</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A229">
-        <v>52841.202590000001</v>
-      </c>
-      <c r="B229">
-        <v>-32.9</v>
-      </c>
-      <c r="C229">
-        <v>-173</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A230">
-        <v>53053.213239999997</v>
-      </c>
-      <c r="B230">
-        <v>-33.1</v>
-      </c>
-      <c r="C230">
-        <v>-170</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A231">
-        <v>53266.074509999999</v>
-      </c>
-      <c r="B231">
-        <v>-33.299999999999997</v>
-      </c>
-      <c r="C231">
-        <v>-171</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A232">
-        <v>53479.789839999998</v>
-      </c>
-      <c r="B232">
-        <v>-33.5</v>
-      </c>
-      <c r="C232">
-        <v>-175</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A233">
-        <v>53694.362639999999</v>
-      </c>
-      <c r="B233">
-        <v>-33.6</v>
-      </c>
-      <c r="C233">
-        <v>-169</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A234">
-        <v>53909.796349999997</v>
-      </c>
-      <c r="B234">
-        <v>-33.799999999999997</v>
-      </c>
-      <c r="C234">
-        <v>-169</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A235">
-        <v>54126.094429999997</v>
-      </c>
-      <c r="B235">
-        <v>-34</v>
-      </c>
-      <c r="C235">
-        <v>-172</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A236">
-        <v>54343.260349999997</v>
-      </c>
-      <c r="B236">
-        <v>-34.200000000000003</v>
-      </c>
-      <c r="C236">
-        <v>-169</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A237">
-        <v>54561.297579999999</v>
-      </c>
-      <c r="B237">
-        <v>-34.4</v>
-      </c>
-      <c r="C237">
-        <v>-170</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A238">
-        <v>54780.209629999998</v>
-      </c>
-      <c r="B238">
-        <v>-34.5</v>
-      </c>
-      <c r="C238">
-        <v>-173</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A239">
-        <v>55000</v>
-      </c>
-      <c r="B239">
-        <v>-34.700000000000003</v>
-      </c>
-      <c r="C239">
-        <v>-171</v>
+        <v>-181</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TP5/EJ2/Mediciones/Bode.xlsx
+++ b/TP5/EJ2/Mediciones/Bode.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3983D86-B578-4A7E-B196-B3EDB59D755A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27C279D-AE01-4AF8-A3D1-0B41B94410D6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,8 +349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C225"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C210" sqref="C210"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="B120" sqref="B120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1628,7 +1628,7 @@
         <v>35133.368009999998</v>
       </c>
       <c r="B116">
-        <v>-2.9</v>
+        <v>-2.8</v>
       </c>
       <c r="C116">
         <v>9</v>
@@ -1639,7 +1639,7 @@
         <v>35290.517140000004</v>
       </c>
       <c r="B117">
-        <v>-3</v>
+        <v>-2.8</v>
       </c>
       <c r="C117">
         <v>4</v>
@@ -1650,7 +1650,7 @@
         <v>35448.369189999998</v>
       </c>
       <c r="B118">
-        <v>-3</v>
+        <v>-2.8</v>
       </c>
       <c r="C118">
         <v>2</v>
@@ -1661,7 +1661,7 @@
         <v>35606.92729</v>
       </c>
       <c r="B119">
-        <v>-2.9</v>
+        <v>-2.8</v>
       </c>
       <c r="C119">
         <v>-1</v>
@@ -1672,7 +1672,7 @@
         <v>35766.194620000002</v>
       </c>
       <c r="B120">
-        <v>-2.9</v>
+        <v>-2.8</v>
       </c>
       <c r="C120">
         <v>-5</v>
